--- a/Result/Facade/Comparison_2_3_vs_3_3.xlsx
+++ b/Result/Facade/Comparison_2_3_vs_3_3.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="D607" activeCellId="1" sqref="C603 D607"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,9 +516,6 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -1380,85 +1377,82 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -1575,9 +1569,6 @@
       <c r="A214">
         <v>212</v>
       </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215">
@@ -1807,85 +1798,82 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>264</v>
       </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>270</v>
       </c>
@@ -2048,9 +2036,6 @@
       <c r="A302">
         <v>300</v>
       </c>
-      <c r="C302">
-        <v>1</v>
-      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303">
@@ -2210,9 +2195,6 @@
       <c r="A332">
         <v>330</v>
       </c>
-      <c r="C332">
-        <v>1</v>
-      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333">
@@ -2406,85 +2388,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>381</v>
       </c>
-      <c r="C383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>382</v>
       </c>
@@ -3393,9 +3372,6 @@
       <c r="A553">
         <v>551</v>
       </c>
-      <c r="B553">
-        <v>1</v>
-      </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A554">
@@ -3676,11 +3652,11 @@
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B602">
         <f>SUM(B2:B600)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C602">
         <f>SUM(C2:C600)</f>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D602">
         <v>394</v>
@@ -3692,12 +3668,6 @@
       </c>
       <c r="C603">
         <v>0.19040000000000001</v>
-      </c>
-    </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1048576">
-        <f>SUM(B11:B1048575)</f>
-        <v>40.050800000000002</v>
       </c>
     </row>
   </sheetData>
